--- a/sec3group.xlsx
+++ b/sec3group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>กลุ่ม</t>
+          <t>Group</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>643150164-3</t>
+          <t>633150043-4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>นางสาวธนรรชพรรณ คำทะเนตร</t>
+          <t>นางสาวณัฐชมพร พันโณทยาน</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -475,142 +475,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>643150168-5</t>
+          <t>633150122-8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>นางสาวพิมณัฏฐา พิกุลต์ทองฐ์</t>
+          <t>นายพศิน ศิลปพันธุ์</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>643150094-8</t>
+          <t>633150185-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>นางสาวสุตาวี พละสุ</t>
+          <t>นางสาวฐิติมา สุวรรณโสภา</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>643150091-4</t>
+          <t>643150037-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>นายศิริมงคล ผุดผ่อง</t>
+          <t>นายซือ หมิง อึ้ง</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>643150082-5</t>
+          <t>643150038-8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>นายปัณณธร เสนามนตรี</t>
+          <t>นางสาวณัฏฐนันท์ นิลดำ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>643150038-8</t>
+          <t>643150039-6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>นางสาวณัฏฐนันท์ นิลดำ</t>
+          <t>นางสาวณัฐนันท์ ชูตินันทน์</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>643150040-1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>นางสาวณิรภา คามวัลย์</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>633150122-8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>นายพศิน ศิลปพันธุ์</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>643150092-2</t>
+          <t>643150041-9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>นางสาวศุภิสรา ภูกาสอน</t>
+          <t>นางสาวพรพิชชา ตันรัตนพิทักษ์</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>643150079-4</t>
+          <t>643150042-7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>นายนรภัทร ขาวสี</t>
+          <t>นางสาวเมษณีย์ พิทักษ์วงศ์</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -619,52 +619,52 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>643150163-5</t>
+          <t>643150043-5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>นางสาวเทวิดา ศรีกุดเลาะ</t>
+          <t>นางสาววริษฐา พลวัฒนกุล</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>643150085-9</t>
+          <t>643150044-3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>นางสาวพิมพ์ชนก มูลทอง</t>
+          <t>นางสาวเอมิลี่ เจน อลิษา เมย์</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>633150128-6</t>
+          <t>643150073-6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>นายวรวุฒิ หรเสริฐ</t>
+          <t>นางสาวขัตติญา สอนเชียงคำ</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -673,52 +673,52 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>643150191-0</t>
+          <t>643150074-4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>นางสาวนิศากาณฑ์ ศรีบุตร</t>
+          <t>นางสาวจิดาภา ราชธา</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>643150172-4</t>
+          <t>643150075-2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>นางสาวรังสิมา คามจังหาร</t>
+          <t>นางสาวเจณิชน์สา ภูหงษ์ทอง</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>643150161-9</t>
+          <t>643150077-8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>นางสาวชญานิศ พลีศักดิ์</t>
+          <t>นางสาวชัญญา ลิปิพัฒนา</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -727,34 +727,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>643150166-9</t>
+          <t>643150079-4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>นางสาวพิชญานิน จันทร์พรมราช</t>
+          <t>นายนรภัทร ขาวสี</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>643150176-6</t>
+          <t>643150080-9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>นางสาวศิโรรัตน์ แซ่อึ้ง</t>
+          <t>นางสาวเบญญาภา หมื่นมนตรี</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -763,34 +763,34 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>643150073-6</t>
+          <t>643150081-7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>นางสาวขัตติญา สอนเชียงคำ</t>
+          <t>นางสาวปวีณ์กร ทองครไทย</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>643150043-5</t>
+          <t>643150082-5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>นางสาววริษฐา พลวัฒนกุล</t>
+          <t>นายปัณณธร เสนามนตรี</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -799,92 +799,92 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>643150178-2</t>
+          <t>643150083-3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>นางสาวอรการ ว่องสิริชนม์</t>
+          <t>นางสาวพัณณิตา ตุลาบดี</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>643150037-0</t>
+          <t>643150084-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>นายซือ หมิง อึ้ง</t>
+          <t>นางสาวพันทิพภา สีหาวงค์</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>643150077-8</t>
+          <t>643150085-9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>นางสาวชัญญา ลิปิพัฒนา</t>
+          <t>นางสาวพิมพ์ชนก มูลทอง</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>643150042-7</t>
+          <t>643150086-7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>นางสาวเมษณีย์ พิทักษ์วงศ์</t>
+          <t>นางสาวพิมพ์บุณย์ พิทักษ์</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>643150086-7</t>
+          <t>643150087-5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>นางสาวพิมพ์บุณย์ พิทักษ์</t>
+          <t>นางสาวเพชรลดา ศรีสกุลไทย</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -902,183 +902,183 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>643150095-6</t>
+          <t>643150089-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>นางสาวอารดา พัฒนขจร</t>
+          <t>นางสาวเรืองระวี หาญวิชัยวัฒนา</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>643150040-1</t>
+          <t>643150090-6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>นางสาวณิรภา คามวัลย์</t>
+          <t>นางสาววรัญญา แต่เจริญ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>643150075-2</t>
+          <t>643150091-4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>นางสาวเจณิชน์สา ภูหงษ์ทอง</t>
+          <t>นายศิริมงคล ผุดผ่อง</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>643150167-7</t>
+          <t>643150092-2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>นางสาวพิณแพร เอกกาญจนกร</t>
+          <t>นางสาวศุภิสรา ภูกาสอน</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>643150179-0</t>
+          <t>643150094-8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>นางสาวอิศราพร ปัญญาธานี</t>
+          <t>นางสาวสุตาวี พละสุ</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>643150074-4</t>
+          <t>643150095-6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>นางสาวจิดาภา ราชธา</t>
+          <t>นางสาวอารดา พัฒนขจร</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>643150162-7</t>
+          <t>643150161-9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>นางสาวดวงกมล วงษ์ศรีแก้ว</t>
+          <t>นางสาวชญานิศ พลีศักดิ์</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>643150192-8</t>
+          <t>643150162-7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>นางสาวพัทธ์ธีรา ศิริวงศ์ไพศาล</t>
+          <t>นางสาวดวงกมล วงษ์ศรีแก้ว</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>643150080-9</t>
+          <t>643150163-5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>นางสาวเบญญาภา หมื่นมนตรี</t>
+          <t>นางสาวเทวิดา ศรีกุดเลาะ</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>643150174-0</t>
+          <t>643150164-3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>นายศวีระ ธัมทะมาลา</t>
+          <t>นางสาวธนรรชพรรณ คำทะเนตร</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1087,160 +1087,160 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>643150083-3</t>
+          <t>643150166-9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>นางสาวพัณณิตา ตุลาบดี</t>
+          <t>นางสาวพิชญานิน จันทร์พรมราช</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>643150177-4</t>
+          <t>643150167-7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>นางสาวศุภิสรา ทองเจียว</t>
+          <t>นางสาวพิณแพร เอกกาญจนกร</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>643150084-1</t>
+          <t>643150168-5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>นางสาวพันทิพภา สีหาวงค์</t>
+          <t>นางสาวพิมณัฏฐา พิกุลต์ทองฐ์</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>643150041-9</t>
+          <t>643150169-3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>นางสาวพรพิชชา ตันรัตนพิทักษ์</t>
+          <t>นางสาวแพรวมยุรี หาทรัพย์</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>643150090-6</t>
+          <t>643150172-4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>นางสาววรัญญา แต่เจริญ</t>
+          <t>นางสาวรังสิมา คามจังหาร</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>643150087-5</t>
+          <t>643150173-2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>นางสาวเพชรลดา ศรีสกุลไทย</t>
+          <t>นางสาววันวิสาข์ พลขันธ์</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>643150180-5</t>
+          <t>643150174-0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>นางสาวอิสรีย์ พงษ์อุดมกูล</t>
+          <t>นายศวีระ ธัมทะมาลา</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>643150044-3</t>
+          <t>643150176-6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>นางสาวเอมิลี่ เจน อลิษา เมย์</t>
+          <t>นางสาวศิโรรัตน์ แซ่อึ้ง</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>643150169-3</t>
+          <t>643150177-4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>นางสาวแพรวมยุรี หาทรัพย์</t>
+          <t>นางสาวศุภิสรา ทองเจียว</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1249,20 +1249,128 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>643150089-1</t>
+          <t>643150178-2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>นางสาวเรืองระวี หาญวิชัยวัฒนา</t>
+          <t>นางสาวอรการ ว่องสิริชนม์</t>
         </is>
       </c>
       <c r="D46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>643150179-0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>นางสาวอิศราพร ปัญญาธานี</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>643150180-5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>นางสาวอิสรีย์ พงษ์อุดมกูล</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>643150188-9</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>นายภัทรดนัย หล่าโยม</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>643150191-0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>นางสาวนิศากาณฑ์ ศรีบุตร</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>643150192-8</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>นางสาวพัทธ์ธีรา ศิริวงศ์ไพศาล</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>633150128-6</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>นายวรวุฒิ หรเสริฐ</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
